--- a/biology/Médecine/Myélite/Myélite.xlsx
+++ b/biology/Médecine/Myélite/Myélite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My%C3%A9lite</t>
+          <t>Myélite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La myélite est une inflammation aiguë de la moelle spinale. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>My%C3%A9lite</t>
+          <t>Myélite</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les causes en sont infectieuses ou auto-immunes :
 la tuberculose (bactérie Mycobacterium tuberculosis) ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>My%C3%A9lite</t>
+          <t>Myélite</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes peuvent être multiples et différents selon l'individu. Voici quelques exemples :
 des fourmillements, pertes de sensibilité tactile… ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>My%C3%A9lite</t>
+          <t>Myélite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Étiologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les étiologies les plus fréquentes de myélite on peut citer :
 la sclérose en plaques ;
